--- a/功能采集完全情况.xlsx
+++ b/功能采集完全情况.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workbench\Python\tushare_env\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workbench\PythonProjects\tushare_env\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="151">
   <si>
     <t>股票列表</t>
   </si>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -875,6 +875,9 @@
       <c r="E2" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F2">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -889,6 +892,9 @@
       <c r="E3" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F3">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -903,6 +909,9 @@
       <c r="E4" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F4">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -917,6 +926,9 @@
       <c r="E5" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F5">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -931,6 +943,9 @@
       <c r="E6" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F6">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -945,6 +960,9 @@
       <c r="E7" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F7">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1354,6 +1372,9 @@
       <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F36">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1362,6 +1383,15 @@
       <c r="B37" t="s">
         <v>71</v>
       </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1448,6 +1478,9 @@
       <c r="E44" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F44">
+        <v>20190106</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1461,6 +1494,9 @@
       </c>
       <c r="E45" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="F45">
+        <v>20190106</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
